--- a/Output/ChaoticThunder0.xlsx
+++ b/Output/ChaoticThunder0.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +445,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -457,7 +457,7 @@
           <t>12/22/2022, 21:55:59</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -465,10 +465,20 @@
           <t>inventory</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>inventory</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
         </is>
       </c>
     </row>
@@ -478,10 +488,20 @@
           <t>Nashor's Tooth, Riftmaker, Mercury's Treads, Dark Seal, Rabadon's Deathcap</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ghost and Flash</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Blade of The Ruined King, Divine Sunderer, Plated Steelcaps, Caulfield's Warhammer, Chain Vest</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Teleport and Flash</t>
         </is>
       </c>
     </row>
@@ -491,10 +511,20 @@
           <t>Needlessly Large Rod, Hextech Rocketbelt, Sorcerer's Shoes, Needlessly Large Rod</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Smite and Smite</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Jak'Sho, The Protean, Thornmail, Plated Steelcaps, Bami's Cinder</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ghost and Smite</t>
         </is>
       </c>
     </row>
@@ -504,10 +534,20 @@
           <t>Seraph's Embrace, Sorcerer's Shoes, Liandry's Anguish, Seeker's Armguard</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Flash and Flash</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Immortal Shieldbow, Phantom Dancer, Mercury's Treads, Chain Vest, B. F. Sword</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ignite and Flash</t>
         </is>
       </c>
     </row>
@@ -517,10 +557,20 @@
           <t>Muramana, Essence Reaver, Ionian Boots of Lucidity, Duskblade of Draktharr, Serylda's Grudge</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Flash and Flash</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Galeforce, Berserker's Greaves, Runaan's Hurricane, B. F. Sword</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Heal and Flash</t>
         </is>
       </c>
     </row>
@@ -530,10 +580,20 @@
           <t>Shard of True Ice, Ionian Boots of Lucidity, Moonstone Renewer, Chemtech Putrifier, Rylai's Crystal Scepter</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ignite and Flash</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Shard of True Ice, Sorcerer's Shoes, Luden's Tempest, Horizon Focus, Tear of the Goddess</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ignite and Flash</t>
         </is>
       </c>
     </row>
@@ -543,7 +603,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="D9" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -555,7 +615,7 @@
           <t>12/21/2022, 22:42:08</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -563,10 +623,20 @@
           <t>inventory</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>inventory</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
         </is>
       </c>
     </row>
@@ -576,10 +646,20 @@
           <t>Liandry's Anguish, Nashor's Tooth, Sorcerer's Shoes</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Flash and Flash</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Doran's Shield, Heartsteel, Plated Steelcaps</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Teleport and Flash</t>
         </is>
       </c>
     </row>
@@ -589,10 +669,20 @@
           <t>Ionian Boots of Lucidity, Kindlegem, Goredrinker, Caulfield's Warhammer</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Flash and Smite</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Rylai's Crystal Scepter, Plated Steelcaps, Kindlegem, Ruby Crystal</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ghost and Smite</t>
         </is>
       </c>
     </row>
@@ -602,10 +692,20 @@
           <t>Blade of The Ruined King, Mercury's Treads, Ravenous Hydra, Long Sword, Control Ward</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Flash and Teleport</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Doran's Ring, Luden's Tempest, Mercury's Treads, Hextech Alternator, Needlessly Large Rod</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Flash and Teleport</t>
         </is>
       </c>
     </row>
@@ -615,10 +715,20 @@
           <t>Doran's Blade, Kraken Slayer, Berserker's Greaves, The Collector, Cloak of Agility</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Flash and Heal</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Doran's Blade, Kraken Slayer, Berserker's Greaves, Vampiric Scepter, Dagger</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Flash and Heal</t>
         </is>
       </c>
     </row>
@@ -628,10 +738,20 @@
           <t>Shard of True Ice, Luden's Tempest, Sorcerer's Shoes, Hextech Alternator</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Flash and Ignite</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Everfrost, Shard of True Ice, Tear of the Goddess, Sorcerer's Shoes, Ruby Crystal</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Flash and Ignite</t>
         </is>
       </c>
     </row>
@@ -641,7 +761,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -653,7 +773,7 @@
           <t>12/21/2022, 22:01:25</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -661,10 +781,20 @@
           <t>inventory</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>inventory</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
         </is>
       </c>
     </row>
@@ -674,10 +804,20 @@
           <t>Divine Sunderer, Spirit Visage, Death's Dance, Mercury's Treads</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Teleport and Ignite</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Jak'Sho, The Protean, Rylai's Crystal Scepter, Mercury's Treads, Dark Seal, Thornmail</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Flash and Ignite</t>
         </is>
       </c>
     </row>
@@ -687,10 +827,20 @@
           <t>Ravenous Hydra, Prowler's Claw, Boots of Swiftness, Death's Dance</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ghost and Flash</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Blade of The Ruined King, Ravenous Hydra, Mercury's Treads, Jak'Sho, The Protean, Spear Of Shojin</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Smite and Flash</t>
         </is>
       </c>
     </row>
@@ -700,10 +850,20 @@
           <t>Doran's Ring, Quicksilver Sash, Horizon Focus, Sorcerer's Shoes, Dark Seal</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Flash and Ignite</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="n"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Ravenous Hydra, Ionian Boots of Lucidity, Prowler's Claw, Serylda's Grudge, Serrated Dirk</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Flash and Ignite</t>
         </is>
       </c>
     </row>
@@ -713,10 +873,20 @@
           <t>Fiendish Codex, Sorcerer's Shoes, Luden's Tempest, Rabadon's Deathcap, Void Staff</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Flash and Flash</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Null-Magic Mantle, Galeforce, Phantom Dancer, Infinity Edge, Hearthbound Axe</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cleanse and Flash</t>
         </is>
       </c>
     </row>
@@ -726,10 +896,20 @@
           <t>Zhonya's Hourglass, Shard of True Ice, Sorcerer's Shoes, Control Ward, Liandry's Anguish</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Flash and Flash</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Shard of True Ice, Zhonya's Hourglass, Everfrost, Ionian Boots of Lucidity, Shadowflame</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Ignite and Flash</t>
         </is>
       </c>
     </row>
@@ -739,7 +919,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="D25" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -751,7 +931,7 @@
           <t>12/21/2022, 21:00:19</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -759,10 +939,20 @@
           <t>inventory</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>inventory</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
         </is>
       </c>
     </row>
@@ -772,10 +962,20 @@
           <t>Zhonya's Hourglass, Needlessly Large Rod, Liandry's Anguish, Sorcerer's Shoes</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Teleport and Flash</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="n"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>Force of Nature, Heartsteel, Mercury's Treads, Catalyst of Aeons, Ruby Crystal</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Teleport and Flash</t>
         </is>
       </c>
     </row>
@@ -785,10 +985,20 @@
           <t>Ravenous Hydra, Prowler's Claw, Boots of Swiftness, Death's Dance, Winged Moonplate</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ghost and Smite</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Warmog's Armor, Iceborn Gauntlet, Amplifying Tome, Blasting Wand, Giant's Belt</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Flash and Smite</t>
         </is>
       </c>
     </row>
@@ -798,10 +1008,20 @@
           <t>Luden's Tempest, Rabadon's Deathcap, Mejai's Soulstealer, Shadowflame, Sorcerer's Shoes</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Teleport and Ignite</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Doran's Ring, Luden's Tempest, Sorcerer's Shoes, Shadowflame, Seeker's Armguard</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Flash and Ignite</t>
         </is>
       </c>
     </row>
@@ -811,10 +1031,20 @@
           <t>Immortal Shieldbow, Plated Steelcaps, The Collector, Long Sword, Long Sword</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Flash and Flash</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Ravenous Hydra, Hearthbound Axe, Guinsoo's Rageblade, Berserker's Greaves, Immortal Shieldbow</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Heal and Flash</t>
         </is>
       </c>
     </row>
@@ -824,10 +1054,20 @@
           <t>Luden's Tempest, Shard of True Ice, Sorcerer's Shoes, Horizon Focus, Hextech Alternator</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n"/>
-      <c r="C32" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Flash and Flash</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Pauldrons of Whiterock, Eclipse, Mercury's Treads, Black Cleaver, Edge of Night</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Exhaust and Flash</t>
         </is>
       </c>
     </row>
@@ -837,7 +1077,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="D33" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -849,7 +1089,7 @@
           <t>12/20/2022, 23:53:55</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n"/>
+      <c r="C34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -857,10 +1097,20 @@
           <t>inventory</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n"/>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>inventory</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
         </is>
       </c>
     </row>
@@ -870,10 +1120,20 @@
           <t>Morellonomicon, Zhonya's Hourglass, Hextech Rocketbelt, Sorcerer's Shoes, Shadowflame</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n"/>
-      <c r="C36" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Flash and Flash</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Maw of Malmortius, Divine Sunderer, Mercury's Treads, Ravenous Hydra, Death's Dance</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Ignite and Flash</t>
         </is>
       </c>
     </row>
@@ -883,10 +1143,20 @@
           <t>Dead Man's Plate, Plated Steelcaps, Iceborn Gauntlet, Thornmail, Winged Moonplate</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n"/>
-      <c r="C37" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ghost and Smite</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Jak'Sho, The Protean, Sunfire Aegis, Ravenous Hydra, Spirit Visage, Recurve Bow</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Flash and Smite</t>
         </is>
       </c>
     </row>
@@ -896,10 +1166,20 @@
           <t>Hextech Rocketbelt, Nashor's Tooth, Mejai's Soulstealer, Cosmic Drive, Rabadon's Deathcap</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n"/>
-      <c r="C38" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Flash and Ignite</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="n"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>Liandry's Anguish, Sorcerer's Shoes, Shadowflame, Tear of the Goddess, Hextech Alternator</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Flash and Ignite</t>
         </is>
       </c>
     </row>
@@ -909,10 +1189,20 @@
           <t>Galeforce, Berserker's Greaves, Long Sword, The Collector, Lord Dominik's Regards</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n"/>
-      <c r="C39" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Heal and Flash</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>Doran's Blade, Kraken Slayer, Berserker's Greaves, Phantom Dancer, Infinity Edge</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Barrier and Flash</t>
         </is>
       </c>
     </row>
@@ -922,10 +1212,20 @@
           <t>Jak'Sho, The Protean, Pauldrons of Whiterock, Plated Steelcaps, Thornmail, Glacial Buckler</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n"/>
-      <c r="C40" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ignite and Flash</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="n"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>Liandry's Anguish, Rylai's Crystal Scepter, Shard of True Ice, Ionian Boots of Lucidity, Chemtech Putrifier</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Heal and Flash</t>
         </is>
       </c>
     </row>
@@ -935,7 +1235,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="D41" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -947,7 +1247,7 @@
           <t>12/20/2022, 23:26:14</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n"/>
+      <c r="C42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -955,10 +1255,20 @@
           <t>inventory</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n"/>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>inventory</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
         </is>
       </c>
     </row>
@@ -968,10 +1278,20 @@
           <t>Frozen Heart, Divine Sunderer, Ionian Boots of Lucidity, Bramble Vest, Ruby Crystal</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n"/>
-      <c r="C44" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Flash and Flash</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="n"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Corrupting Potion, Divine Sunderer, Plated Steelcaps, Phage</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Teleport and Flash</t>
         </is>
       </c>
     </row>
@@ -981,10 +1301,20 @@
           <t>Jak'Sho, The Protean, Blade of The Ruined King, Plated Steelcaps, Pickaxe</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Smite and Smite</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>Ionian Boots of Lucidity, Ravenous Hydra, Caulfield's Warhammer, Long Sword</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Ghost and Smite</t>
         </is>
       </c>
     </row>
@@ -994,10 +1324,20 @@
           <t>Doran's Ring, Rod of Ages, Lich Bane, Sorcerer's Shoes</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n"/>
-      <c r="C46" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ignite and Flash</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Ionian Boots of Lucidity, Refillable Potion, Prowler's Claw, Caulfield's Warhammer, Long Sword</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Ignite and Flash</t>
         </is>
       </c>
     </row>
@@ -1007,10 +1347,20 @@
           <t>Doran's Blade, Kraken Slayer, Berserker's Greaves, Zeal, Health Potion</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n"/>
-      <c r="C47" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ghost and Cleanse</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>Doran's Blade, Berserker's Greaves, Kraken Slayer, Vampiric Scepter, Cloak of Agility</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Flash and Cleanse</t>
         </is>
       </c>
     </row>
@@ -1020,10 +1370,20 @@
           <t>Bulwark of the Mountain, Iceborn Gauntlet, Plated Steelcaps, Winged Moonplate, Cloth Armor</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Teleport and Heal</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="n"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>Shard of True Ice, Health Potion, Sorcerer's Shoes, Dark Seal, Luden's Tempest</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Flash and Heal</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1393,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="D49" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -1045,7 +1405,7 @@
           <t>12/19/2022, 23:11:39</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n"/>
+      <c r="C50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -1053,10 +1413,20 @@
           <t>inventory</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n"/>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>inventory</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
         </is>
       </c>
     </row>
@@ -1066,10 +1436,20 @@
           <t>Stridebreaker, Berserker's Greaves, Mortal Reminder, Dead Man's Plate, Sterak's Gage</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n"/>
-      <c r="C52" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Flash and Flash</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="n"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>Kindlegem, Rylai's Crystal Scepter, Plated Steelcaps, Jak'Sho, The Protean, Morellonomicon</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Teleport and Flash</t>
         </is>
       </c>
     </row>
@@ -1079,10 +1459,20 @@
           <t>Kindlegem, Ravenous Hydra, Ionian Boots of Lucidity, Ruby Crystal, Aegis of the Legion</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n"/>
-      <c r="C53" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ghost and Smite</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>Ravenous Hydra, Eclipse, Plated Steelcaps, Maw of Malmortius</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Flash and Smite</t>
         </is>
       </c>
     </row>
@@ -1092,10 +1482,20 @@
           <t>Zhonya's Hourglass, Refillable Potion, Night Harvester, Ionian Boots of Lucidity, Shadowflame</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n"/>
-      <c r="C54" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ghost and Flash</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="n"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>Wit's End, Berserker's Greaves, Immortal Shieldbow, Infinity Edge, Death's Dance</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Exhaust and Flash</t>
         </is>
       </c>
     </row>
@@ -1105,10 +1505,20 @@
           <t>Last Whisper, Eclipse, Berserker's Greaves, The Collector, Cloak of Agility</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n"/>
-      <c r="C55" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Flash and Flash</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>Plated Steelcaps, Immortal Shieldbow, Blade of The Ruined King, Executioner's Calling, Zeal</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Exhaust and Flash</t>
         </is>
       </c>
     </row>
@@ -1118,10 +1528,20 @@
           <t>Shard of True Ice, Luden's Tempest, Sorcerer's Shoes, Morellonomicon</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n"/>
-      <c r="C56" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Ignite and Flash</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="n"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>Shard of True Ice, Moonstone Renewer, Sorcerer's Shoes, Chemtech Putrifier, Giant's Belt</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Heal and Flash</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1551,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="D57" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -1143,7 +1563,7 @@
           <t>12/19/2022, 22:36:48</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n"/>
+      <c r="C58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
@@ -1151,10 +1571,20 @@
           <t>inventory</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n"/>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="n"/>
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>inventory</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>summonerSpells</t>
         </is>
       </c>
     </row>
@@ -1164,10 +1594,20 @@
           <t>Shard of True Ice, Shurelya's Battlesong, Plated Steelcaps, Chemtech Putrifier, Staff of Flowing Water</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n"/>
-      <c r="C60" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Flash and Exhaust</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="n"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>Pauldrons of Whiterock, Locket of the Iron Solari, Mobility Boots, Zeke's Convergence, Ruby Crystal</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Flash and Exhaust</t>
         </is>
       </c>
     </row>
@@ -1177,10 +1617,20 @@
           <t>Doran's Blade, Berserker's Greaves, Kraken Slayer, Phantom Dancer, B. F. Sword</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n"/>
-      <c r="C61" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Flash and Heal</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>Doran's Blade, Kraken Slayer, Berserker's Greaves, Lord Dominik's Regards, B. F. Sword</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Flash and Heal</t>
         </is>
       </c>
     </row>
@@ -1190,10 +1640,20 @@
           <t>Sterak's Gage, Mercury's Treads, Black Cleaver, Jak'Sho, The Protean, Hullbreaker</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n"/>
-      <c r="C62" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Flash and Teleport</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="n"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>Plated Steelcaps, Doran's Shield, Heartsteel, Sunfire Aegis, Warden's Mail</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Flash and Teleport</t>
         </is>
       </c>
     </row>
@@ -1203,10 +1663,20 @@
           <t>Doran's Blade, Nashor's Tooth, Refillable Potion, Sorcerer's Shoes, Riftmaker</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n"/>
-      <c r="C63" t="inlineStr">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Flash and Flash</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" t="inlineStr">
         <is>
           <t>Essence Reaver, Duskblade of Draktharr, Ionian Boots of Lucidity, Ravenous Hydra, Lord Dominik's Regards</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Smite and Flash</t>
         </is>
       </c>
     </row>
@@ -1216,39 +1686,49 @@
           <t>Plated Steelcaps, Rylai's Crystal Scepter, Jak'Sho, The Protean, Bramble Vest</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n"/>
-      <c r="C64" t="inlineStr">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Ghost and Flash</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="n"/>
+      <c r="D64" t="inlineStr">
         <is>
           <t>Corrupting Potion, Stopwatch, Sorcerer's Shoes, Luden's Tempest, Seeker's Armguard</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Ignite and Flash</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A9"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A17"/>
-    <mergeCell ref="C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A25"/>
-    <mergeCell ref="C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A33"/>
-    <mergeCell ref="C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A49"/>
-    <mergeCell ref="C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A57"/>
-    <mergeCell ref="C57"/>
-    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A58:E58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/ChaoticThunder0.xlsx
+++ b/Output/ChaoticThunder0.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -459,83 +459,143 @@
           <t>12/22/2022, 21:55:59</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>runes</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>runes</t>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Conquerorand Second Wind</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Lethal Tempoand Biscuit Delivery</t>
+          <t>ToastifiedToast</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gwen</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tosh Gaming</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Jax</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dark Harvestand Celerity</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Aftershockand Triumph</t>
+          <t>kwondii</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nunu</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ChaoticThunder0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rammus</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Electrocuteand Manaflow Band</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Lethal Tempoand Bone Plating</t>
+          <t>cocollona</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anivia</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ojded</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Yasuo</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>First Strikeand Manaflow Band</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Lethal Tempoand Biscuit Delivery</t>
+          <t>ComeHereDumBoi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ezreal</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>novaunreprising</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Jinx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Summon Aeryand Bone Plating</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>First Strikeand Manaflow Band</t>
+          <t>vin00000</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Seraphine</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Speedojoe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Xerath</t>
         </is>
       </c>
     </row>
@@ -545,7 +605,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="D9" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -557,83 +617,143 @@
           <t>12/21/2022, 22:42:08</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>runes</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>runes</t>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Press the Attackand Bone Plating</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Grasp of the Undyingand Cheap Shot</t>
+          <t>Reminessance</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Teemo</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GrumpyGarbage</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Shen</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Conquerorand Magical Footwear</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Conquerorand Conditioning</t>
+          <t>TheeBlackLegacy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Kayn</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ChaoticThunder0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mordekaiser</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lethal Tempoand Biscuit Delivery</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Conquerorand Second Wind</t>
+          <t>Zatnoss</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Irelia</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ben jk</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Syndra</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Press the Attackand Magical Footwear</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Lethal Tempoand Magical Footwear</t>
+          <t>ueatdirt</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MissFortune</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>OmniWaffleGod73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ashe</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Arcane Cometand Biscuit Delivery</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Electrocuteand Coup de Grace</t>
+          <t>svckit</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Lux</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Bubblesf</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Anivia</t>
         </is>
       </c>
     </row>
@@ -643,7 +763,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C17" s="1" t="inlineStr">
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -655,83 +775,143 @@
           <t>12/21/2022, 22:01:25</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>runes</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>runes</t>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n"/>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Conquerorand Revitalize</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Conquerorand Second Wind</t>
+          <t>BWstrikesback</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MonkeyKing</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3xtraChr0m0s0me</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Mordekaiser</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hail of Bladesand Celerity</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Conquerorand Conditioning</t>
+          <t>ChaoticThunder0</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Udyr</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>apaid</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sett</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>First Strikeand Manaflow Band</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Electrocuteand Triumph</t>
+          <t>Becker1099</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Zoe</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="n"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>snail chloride</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Talon</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Electrocuteand Manaflow Band</t>
-        </is>
-      </c>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Lethal Tempoand Absolute Focus</t>
+          <t>OmniWaffleGod73</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Veigar</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>sushiguyalex</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Caitlyn</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Conquerorand Second Wind</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Electrocuteand Manaflow Band</t>
+          <t>Bubblesf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Swain</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fartingzest</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Vex</t>
         </is>
       </c>
     </row>
@@ -741,7 +921,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C25" s="1" t="inlineStr">
+      <c r="D25" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -753,83 +933,143 @@
           <t>12/21/2022, 21:00:19</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>runes</t>
-        </is>
-      </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>runes</t>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Arcane Cometand Perfect Timing</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Grasp of the Undyingand Legend: Tenacity</t>
+          <t>NameYourPoisonPl</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Heimerdinger</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="n"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wild Oblivion</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Chogath</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hail of Bladesand Celerity</t>
-        </is>
-      </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Aftershockand Cheap Shot</t>
+          <t>ChaoticThunder0</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Udyr</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CM876</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Sejuani</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>First Strikeand Manaflow Band</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Electrocuteand Manaflow Band</t>
+          <t>TexxxasSausage</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Syndra</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Owlz03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Ahri</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Conquerorand Taste of Blood</t>
-        </is>
-      </c>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Lethal Tempoand Taste of Blood</t>
+          <t>Sex With Haru</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Samira</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Hoerizontal</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Varus</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>First Strikeand Absolute Focus</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="n"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Press the Attackand Cheap Shot</t>
+          <t>cheesytitz</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Xerath</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>OVOFrostbyte707</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pantheon</t>
         </is>
       </c>
     </row>
@@ -839,7 +1079,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
+      <c r="D33" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -851,83 +1091,143 @@
           <t>12/20/2022, 23:53:55</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n"/>
+      <c r="C34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>runes</t>
-        </is>
-      </c>
-      <c r="B35" s="3" t="n"/>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>runes</t>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Electrocuteand Absolute Focus</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="n"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Grasp of the Undyingand Manaflow Band</t>
+          <t>W0ckhardtWarri0r</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Kennen</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>kymchee</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Fiora</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Conquerorand Conditioning</t>
-        </is>
-      </c>
-      <c r="B37" s="3" t="n"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Conquerorand Revitalize</t>
+          <t>ChaoticThunder0</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Volibear</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>LimeDinosaur</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Warwick</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Electrocuteand Triumph</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="n"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Dark Harvestand Cosmic Insight</t>
+          <t>FaZeWoJo</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Katarina</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="n"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>l0velymoch1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Teemo</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fleet Footworkand Absolute Focus</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="n"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Lethal Tempoand Absolute Focus</t>
+          <t>Zek3PlayS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Caitlyn</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>farisfreek</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Jinx</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Glacial Augmentand Bone Plating</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="n"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Summon Aeryand Biscuit Delivery</t>
+          <t>KMJ1000</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Thresh</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="n"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>remierat</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Seraphine</t>
         </is>
       </c>
     </row>
@@ -937,7 +1237,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="D41" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -949,83 +1249,143 @@
           <t>12/20/2022, 23:26:14</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n"/>
+      <c r="C42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>runes</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="n"/>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>runes</t>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fleet Footworkand Second Wind</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="n"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Conquerorand Bone Plating</t>
+          <t>joking2no</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nasus</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="n"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AKAVapeon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Illaoi</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lethal Tempoand Celerity</t>
-        </is>
-      </c>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Conquerorand Nimbus Cloak</t>
+          <t>FlashDr1ppp</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Warwick</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ChaoticThunder0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Hecarim</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Summon Aeryand Demolish</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="n"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Electrocuteand Absolute Focus</t>
+          <t>The Seamen Demon</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Diana</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TheNobleInc</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Talon</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Lethal Tempoand Biscuit Delivery</t>
-        </is>
-      </c>
-      <c r="B47" s="3" t="n"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Lethal Tempoand Magical Footwear</t>
+          <t>soggycerealtf</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ashe</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>P0niesDaughter</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MissFortune</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Guardianand Approach Velocity</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Arcane Cometand Cheap Shot</t>
+          <t>Błender</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Braum</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="n"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>OG Bruniik</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Lux</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1395,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C49" s="1" t="inlineStr">
+      <c r="D49" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -1047,83 +1407,143 @@
           <t>12/19/2022, 23:11:39</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n"/>
+      <c r="C50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>runes</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="n"/>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>runes</t>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Conquerorand Overgrowth</t>
-        </is>
-      </c>
-      <c r="B52" s="3" t="n"/>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Conquerorand Revitalize</t>
+          <t>ThermalSquash</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Garen</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="n"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>bdht06</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Mordekaiser</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Conquerorand Nimbus Cloak</t>
-        </is>
-      </c>
-      <c r="B53" s="3" t="n"/>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Conquerorand Magical Footwear</t>
+          <t>ChaoticThunder0</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hecarim</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Aklaintac</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>LeeSin</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>First Strikeand Transcendence</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="n"/>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Lethal Tempoand Second Wind</t>
+          <t>Bonecollector584</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Shyvana</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="n"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Shiroishi25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Yone</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Press the Attackand Magical Footwear</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="n"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Press the Attackand Taste of Blood</t>
+          <t>SharpDressedLad</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MissFortune</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>ExpelliarmusEX</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Vayne</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Arcane Cometand Ultimate Hunter</t>
-        </is>
-      </c>
-      <c r="B56" s="3" t="n"/>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Summon Aeryand Biscuit Delivery</t>
+          <t>Yalta808</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Lux</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="n"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>x Taylor Swift x</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Seraphine</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1553,7 @@
           <t>Red Team</t>
         </is>
       </c>
-      <c r="C57" s="1" t="inlineStr">
+      <c r="D57" s="1" t="inlineStr">
         <is>
           <t>Blue Team</t>
         </is>
@@ -1145,112 +1565,172 @@
           <t>12/19/2022, 22:36:48</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n"/>
+      <c r="C58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>runes</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="n"/>
-      <c r="C59" s="4" t="inlineStr">
-        <is>
-          <t>runes</t>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="n"/>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>summonerName</t>
+        </is>
+      </c>
+      <c r="E59" s="4" t="inlineStr">
+        <is>
+          <t>championName</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Summon Aeryand Bone Plating</t>
-        </is>
-      </c>
-      <c r="B60" s="3" t="n"/>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Aftershockand Biscuit Delivery</t>
+          <t>Ritzsu</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Renata</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="n"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SLG Poopies</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Blitzcrank</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Hail of Bladesand Legend: Bloodline</t>
-        </is>
-      </c>
-      <c r="B61" s="3" t="n"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Lethal Tempoand Absolute Focus</t>
+          <t>shadowbunner</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Tristana</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Soliditaryy</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Caitlyn</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Press the Attackand Conditioning</t>
-        </is>
-      </c>
-      <c r="B62" s="3" t="n"/>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Grasp of the Undyingand Manaflow Band</t>
+          <t>Sickgamer69</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Urgot</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="n"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>thiccsuccdank</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Chogath</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hail of Bladesand Absolute Focus</t>
-        </is>
-      </c>
-      <c r="B63" s="3" t="n"/>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Electrocuteand Magical Footwear</t>
+          <t>thelegend592</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Varus</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Wanchu</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Rengar</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Conquerorand Conditioning</t>
-        </is>
-      </c>
-      <c r="B64" s="3" t="n"/>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Arcane Cometand Cheap Shot</t>
+          <t>ChaoticThunder0</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Mordekaiser</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="n"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SLG Sarahkiins</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Lux</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1"/>
-    <mergeCell ref="C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A9"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A17"/>
-    <mergeCell ref="C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A25"/>
-    <mergeCell ref="C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A33"/>
-    <mergeCell ref="C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A49"/>
-    <mergeCell ref="C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A57"/>
-    <mergeCell ref="C57"/>
-    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A58:E58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
